--- a/similarities/split_global/harmonic_similarity_timestamps_181.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_181.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:01:03.460000', '0:01:05.780000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:58.460000', '0:01:03.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:12.120000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:00:11.700000', '0:00:23.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'G/3', 'G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7/C', 'C', 'C/G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:07.905000', '0:01:12.107811')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:10.440000', '0:04:14.840000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=250.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:7', 'D:7', 'G']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:39.910000', '0:00:52.200000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:23.810000', '0:00:30.780000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:07.560000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000'), ('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:28.536000', '0:00:33.834000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000')]</t>
+          <t>('0:01:24.540000', '0:01:34.680000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=84.54</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['G#/C', 'D#:7/A#', 'G#/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Cb', 'Gb:7', 'Cb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:25.690000')]</t>
+          <t>('0:00:51.040000', '0:00:52.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:50.130000', '0:02:18.500000')]</t>
+          <t>('0:00:46.759000', '0:00:50.551000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=51.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=110.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'F:7']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Db:7']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:20.730000', '0:00:26.200000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:55.470000', '0:00:59.320000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=55.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:02.900000')]</t>
+          <t>('0:00:24.820000', '0:00:59.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:52.146870')]</t>
+          <t>('0:00:12.680000', '0:00:20.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=24.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.560000', '0:00:24.900000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:09.640000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'C#:maj', 'G#:maj']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:46.272131', '0:00:52.170000')]</t>
+          <t>('0:01:14.200000', '0:01:21.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.640000', '0:00:11.380000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=46.272131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
